--- a/nazip.xlsx
+++ b/nazip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="37800" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="39375" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="combo" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8355" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8357" uniqueCount="996">
   <si>
     <t>k</t>
   </si>
@@ -3899,6 +3899,17 @@
   </si>
   <si>
     <t>ski</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>きょく</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <rPh sb="0" eb="2">
+      <t>トクシュ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3972,16 +3983,16 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14634,9 +14645,9 @@
   <dimension ref="A1:H2411"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2304" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I2321" sqref="I2321"/>
+      <selection pane="bottomLeft" activeCell="G282" sqref="G282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -19222,6 +19233,12 @@
       <c r="E281" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>qc</v>
+      </c>
+      <c r="F281" t="s">
+        <v>994</v>
+      </c>
+      <c r="G281" t="s">
+        <v>995</v>
       </c>
     </row>
     <row r="282" spans="2:7" ht="16.5" customHeight="1">
@@ -55233,7 +55250,7 @@
       </c>
       <c r="Y12" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A12&amp;'yomi-matrix'!Y$2,yomi!$E:$E,0),2)="",$A12&amp;Y$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A12&amp;'yomi-matrix'!Y$2,yomi!$E:$E,0),2))</f>
-        <v>qc</v>
+        <v>きょく</v>
       </c>
       <c r="Z12" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A12&amp;'yomi-matrix'!Z$2,yomi!$E:$E,0),2)="",$A12&amp;Z$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A12&amp;'yomi-matrix'!Z$2,yomi!$E:$E,0),2))</f>
@@ -64335,7 +64352,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="expression" dxfId="0" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>ISNA(INDIRECT(ADDRESS(0,0,4,0),0))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/nazip.xlsx
+++ b/nazip.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="42525" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="44100" yWindow="0" windowWidth="2160" windowHeight="0" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="combo" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8365" uniqueCount="1004">
   <si>
     <t>k</t>
   </si>
@@ -3941,6 +3941,17 @@
     <rPh sb="0" eb="2">
       <t>トクシュ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変則</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ひゅー</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4305,7 +4316,7 @@
   <dimension ref="A1:AE83"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="110" zoomScaleNormal="180" zoomScaleSheetLayoutView="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A85" sqref="A85"/>
@@ -14678,7 +14689,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2304" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2309" sqref="E2309"/>
+      <selection pane="bottomLeft" activeCell="G2309" sqref="G2309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -32517,7 +32528,7 @@
         <v>932</v>
       </c>
       <c r="G1090" t="s">
-        <v>939</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="1091" spans="2:7" ht="16.5" customHeight="1">
@@ -38433,7 +38444,10 @@
         <v>hu</v>
       </c>
       <c r="F1444" t="s">
-        <v>172</v>
+        <v>382</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="1445" spans="2:7" ht="16.5" customHeight="1">
@@ -38664,7 +38678,10 @@
         <v>hv</v>
       </c>
       <c r="F1459" t="s">
-        <v>639</v>
+        <v>387</v>
+      </c>
+      <c r="G1459" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="1460" spans="2:7" ht="16.5" customHeight="1">
@@ -38822,7 +38839,10 @@
         <v>hhu</v>
       </c>
       <c r="F1470" t="s">
-        <v>268</v>
+        <v>1003</v>
+      </c>
+      <c r="G1470" t="s">
+        <v>1002</v>
       </c>
     </row>
     <row r="1471" spans="2:7" ht="16.5" customHeight="1">
@@ -53913,10 +53933,10 @@
   <dimension ref="A1:AE84"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="180" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D35" sqref="D35"/>
+      <selection pane="bottomRight" activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="16.5"/>
@@ -60252,7 +60272,7 @@
       </c>
       <c r="D52" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!D$2,yomi!$E:$E,0),2)="",$A52&amp;D$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!D$2,yomi!$E:$E,0),2))</f>
-        <v>ふ</v>
+        <v>ひゅ</v>
       </c>
       <c r="E52" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!E$2,yomi!$E:$E,0),2)="",$A52&amp;E$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!E$2,yomi!$E:$E,0),2))</f>
@@ -60312,7 +60332,7 @@
       </c>
       <c r="S52" s="5" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!S$2,yomi!$E:$E,0),2)="",$A52&amp;S$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!S$2,yomi!$E:$E,0),2))</f>
-        <v>ふう</v>
+        <v>ひゅう</v>
       </c>
       <c r="T52" s="1" t="e">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!T$2,yomi!$E:$E,0),2)="",$A52&amp;T$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A52&amp;'yomi-matrix'!T$2,yomi!$E:$E,0),2))</f>
@@ -60378,7 +60398,7 @@
       </c>
       <c r="D53" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A53&amp;'yomi-matrix'!D$2,yomi!$E:$E,0),2)="",$A53&amp;D$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A53&amp;'yomi-matrix'!D$2,yomi!$E:$E,0),2))</f>
-        <v>ふー</v>
+        <v>ひゅー</v>
       </c>
       <c r="E53" s="1" t="str">
         <f ca="1">IF(INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A53&amp;'yomi-matrix'!E$2,yomi!$E:$E,0),2)="",$A53&amp;E$2,INDEX(yomi!$E:$F,MATCH('yomi-matrix'!$A53&amp;'yomi-matrix'!E$2,yomi!$E:$E,0),2))</f>
